--- a/doc/平台接口变更记录.xlsx
+++ b/doc/平台接口变更记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_jytek\Testflow\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE13D398-BECD-46AF-A81B-F5AD287D4119}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106797D1-CD3A-4EBB-B300-E41FC0293031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>基础版本号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>IComInterfaceManager新增GetAssemblyInfo方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IComInterfaceManager新增IsDerivedFrom方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -449,6 +453,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
